--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         <v>44834</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>44866</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>43405</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44869</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>43780</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44053</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>44475</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>43555</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44391</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44425</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44866</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>44901</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6702,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6873,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6930,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8861,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9783,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9840,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10073,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11057,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11238,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11476,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12522,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13764,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14297,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14411,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14525,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14639,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17321,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24511,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24739,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24853,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25837,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25956,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27463,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27520,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27577,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27691,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27924,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28566,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28680,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28737,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28794,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28851,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28908,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29250,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29478,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29535,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30053,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30224,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30462,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         <v>24.8</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
@@ -762,7 +762,8 @@
 Mindre märgborre
 Thomsons trägnagare
 Vågbandad barkbock
-Blåsippa</t>
+Blåsippa
+Revlummer</t>
         </is>
       </c>
       <c r="S3">
@@ -804,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -908,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1001,14 +1002,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 11067-2023</t>
+          <t>A 59850-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44992</v>
+        <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,17 +1022,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1054,6 +1055,95 @@
         <v>5</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett
+Violettgrå tagellav
+Svavelriska
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59850-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59850-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59850-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59850-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59850-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59850-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 11067-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Reliktbock
 Rosenticka
@@ -1062,92 +1152,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11067-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11067-2023.png")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11067-2023.docx")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11067-2023.docx")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11067-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11067-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 43330-2022</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44834</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>19.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>4</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Koralltaggsvamp
 Svavelriska
@@ -1155,92 +1245,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 43330-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 43330-2022.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 43330-2022.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 43330-2022.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 43330-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 43330-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 50359-2022</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>3.2</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>4</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Garnlav
@@ -1248,921 +1338,836 @@
 Nattviol</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 50359-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 50359-2022.png")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 50359-2022.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 50359-2022.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 50359-2022.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 50359-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 50359-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 59802-2018</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>6.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Kolflarnlav
 Vedskivlav
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59802-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59802-2018.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59802-2018.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59802-2018.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59802-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59802-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 51505-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>44869</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>1.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Motaggsvamp
 Bronshjon</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 51505-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 51505-2022.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 51505-2022.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 51505-2022.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 51505-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 51505-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 60948-2019</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>43780</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>3.1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Blåsippa
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 60948-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 60948-2019.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 60948-2019.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 60948-2019.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 60948-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 60948-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 36900-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44053</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>2.9</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Vedskivlav
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 36900-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 36900-2020.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 36900-2020.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 36900-2020.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 36900-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 36900-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 55519-2021</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44475</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>1.8</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar
 Mattlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 55519-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 55519-2021.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 55519-2021.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 55519-2021.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 55519-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 55519-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 17619-2019</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>43555</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>2.1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 17619-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 17619-2019.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 17619-2019.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 17619-2019.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 17619-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 17619-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 36549-2021</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44391</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>5.9</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 36549-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 36549-2021.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 36549-2021.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 36549-2021.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 36549-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 36549-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 41718-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44425</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>5.7</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 41718-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 41718-2021.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 41718-2021.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 41718-2021.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 41718-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 41718-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 50360-2022</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>44866</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>0.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 50360-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 50360-2022.png")</f>
         <v/>
       </c>
-      <c r="U17">
+      <c r="U18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 50360-2022.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 50360-2022.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 50360-2022.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 50360-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 50360-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 59850-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44901</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59850-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59850-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59850-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59850-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59850-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59850-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
@@ -2173,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2258,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2436,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2521,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2606,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2776,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2833,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2947,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3004,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3061,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3118,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3175,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3584,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3646,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3703,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3760,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3817,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3879,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3941,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3998,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4055,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4112,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4174,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4236,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4293,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4350,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4407,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4464,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4521,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4578,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4640,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4697,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4754,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4811,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4868,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4925,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4982,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5039,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5096,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5153,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5210,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5267,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5324,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5381,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5438,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5495,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5552,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5609,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5671,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5728,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5785,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5847,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5904,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5961,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6018,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6075,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6132,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6189,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6246,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6303,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6360,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6417,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6474,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6531,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6588,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6645,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6702,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6759,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6816,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6873,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6930,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6987,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7044,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7106,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7163,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7225,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7287,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7349,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7411,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7473,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7530,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7587,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7644,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7701,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7758,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7815,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7872,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7934,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7991,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8048,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8105,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8162,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8219,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8276,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8338,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8400,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8457,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8519,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8576,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8633,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8690,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8747,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8804,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8861,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8918,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8975,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9032,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9146,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9203,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9260,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9317,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9379,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9436,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9493,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9555,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9612,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9669,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9726,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9783,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9840,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9897,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9959,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10016,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10073,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10135,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10192,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10249,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10306,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10363,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10420,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10477,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10534,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10591,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10653,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10710,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10767,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10824,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10881,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10943,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11000,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11057,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11119,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11181,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11238,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11300,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11362,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11419,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11476,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11533,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11590,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11647,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11704,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11766,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11823,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11880,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11942,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12004,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12061,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12118,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12175,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12232,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12289,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12346,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12403,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12460,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12522,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12579,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12636,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12693,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12750,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12807,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12864,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12921,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12978,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13035,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13092,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13154,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13273,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13330,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13387,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13444,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13501,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13583,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13645,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13707,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13764,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13826,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13888,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13945,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14002,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14059,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14116,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14173,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14235,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14297,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14354,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14411,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14468,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14525,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14582,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14639,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14696,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14753,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14810,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14867,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14924,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14981,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15038,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15095,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15152,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15209,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15266,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15323,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15380,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15437,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15494,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15551,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15608,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15665,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15722,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15784,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15841,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15898,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15955,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16012,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16069,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16126,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16188,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16250,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16307,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16364,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16421,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16483,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16545,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16602,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16659,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16716,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16778,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16840,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16902,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16964,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17026,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17083,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17140,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17197,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17259,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17321,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17378,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17435,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17492,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17549,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17611,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17668,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17730,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17787,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17844,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17901,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17958,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18015,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18072,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18129,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18186,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18243,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18300,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18362,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18424,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18486,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18548,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18605,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18667,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19418,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19475,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19532,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19594,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19656,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19718,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19775,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19832,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19889,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19946,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20003,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20060,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20117,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20174,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20231,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20288,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20345,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20402,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20459,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22454,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22511,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22568,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22625,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22682,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22739,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22796,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22853,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22910,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22967,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23024,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23081,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23138,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23195,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23252,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23309,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23366,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23423,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23480,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23537,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23594,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23651,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23708,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23765,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23822,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23879,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23936,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23993,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24050,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24107,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24164,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24221,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24278,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24335,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24392,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24454,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24511,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24568,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24625,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24682,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24739,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24796,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24853,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24910,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24967,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25024,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25081,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25138,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25195,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25252,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25309,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25366,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25423,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25480,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25542,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25604,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25661,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25718,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25775,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25837,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25894,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25956,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26018,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26080,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26137,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26194,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26251,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26308,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26365,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26422,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26479,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26536,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26593,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26650,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26712,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26774,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26831,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26888,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26945,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27002,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27059,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27121,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27178,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27235,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27292,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27349,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27406,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27463,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27520,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27577,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27634,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27691,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27753,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27810,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27867,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27924,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27986,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28043,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28100,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28157,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28214,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28271,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28328,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28390,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28447,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28509,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28566,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28623,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28680,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28737,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28794,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28851,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28908,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28965,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29022,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29079,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29136,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29193,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29250,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29307,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29364,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29421,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29478,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29535,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29597,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29654,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29711,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29768,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29825,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29882,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29939,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29996,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30053,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30110,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30167,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30224,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30281,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30343,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30405,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30462,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,31 +663,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 64194-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 64194-2021.xlsx", "A 64194-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 64194-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 64194-2021.png", "A 64194-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 64194-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 64194-2021.png", "A 64194-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 64194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 64194-2021.docx", "A 64194-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 64194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 64194-2021.docx", "A 64194-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 64194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 64194-2021.docx", "A 64194-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 64194-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 64194-2021.docx", "A 64194-2021")</f>
         <v/>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,31 +767,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 53849-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 53849-2022.xlsx", "A 53849-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 53849-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 53849-2022.png", "A 53849-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 53849-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 53849-2022.png", "A 53849-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 53849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 53849-2022.docx", "A 53849-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 53849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 53849-2022.docx", "A 53849-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 53849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 53849-2022.docx", "A 53849-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 53849-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 53849-2022.docx", "A 53849-2022")</f>
         <v/>
       </c>
     </row>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,31 +871,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 61375-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 61375-2019.xlsx", "A 61375-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 61375-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 61375-2019.png", "A 61375-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 61375-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 61375-2019.png", "A 61375-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 61375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 61375-2019.docx", "A 61375-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 61375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 61375-2019.docx", "A 61375-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 61375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 61375-2019.docx", "A 61375-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 61375-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 61375-2019.docx", "A 61375-2019")</f>
         <v/>
       </c>
     </row>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,27 +975,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 61373-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 61373-2019.xlsx", "A 61373-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 61373-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 61373-2019.png", "A 61373-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 61373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 61373-2019.docx", "A 61373-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 61373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 61373-2019.docx", "A 61373-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 61373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 61373-2019.docx", "A 61373-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 61373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 61373-2019.docx", "A 61373-2019")</f>
         <v/>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1064,27 +1064,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59850-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59850-2022.xlsx", "A 59850-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59850-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59850-2022.png", "A 59850-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59850-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59850-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59850-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59850-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
     </row>
@@ -1098,7 +1098,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1153,27 +1153,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11067-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11067-2023.xlsx", "A 11067-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11067-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11067-2023.png", "A 11067-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11067-2023.docx", "A 11067-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11067-2023.docx", "A 11067-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11067-2023.docx", "A 11067-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11067-2023.docx", "A 11067-2023")</f>
         <v/>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,27 +1246,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 43330-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 43330-2022.xlsx", "A 43330-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 43330-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 43330-2022.png", "A 43330-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 43330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 43330-2022.docx", "A 43330-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 43330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 43330-2022.docx", "A 43330-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 43330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 43330-2022.docx", "A 43330-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 43330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 43330-2022.docx", "A 43330-2022")</f>
         <v/>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,31 +1339,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 50359-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 50359-2022.xlsx", "A 50359-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 50359-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 50359-2022.png", "A 50359-2022")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 50359-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 50359-2022.png", "A 50359-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 50359-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 50359-2022.docx", "A 50359-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 50359-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 50359-2022.docx", "A 50359-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 50359-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 50359-2022.docx", "A 50359-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 50359-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 50359-2022.docx", "A 50359-2022")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,27 +1430,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59802-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59802-2018.xlsx", "A 59802-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59802-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59802-2018.png", "A 59802-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59802-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59802-2018.docx", "A 59802-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59802-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59802-2018.docx", "A 59802-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59802-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59802-2018.docx", "A 59802-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59802-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59802-2018.docx", "A 59802-2018")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1522,27 +1522,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 51505-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 51505-2022.xlsx", "A 51505-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 51505-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 51505-2022.png", "A 51505-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 51505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 51505-2022.docx", "A 51505-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 51505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 51505-2022.docx", "A 51505-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 51505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 51505-2022.docx", "A 51505-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 51505-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 51505-2022.docx", "A 51505-2022")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,27 +1608,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 60948-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 60948-2019.xlsx", "A 60948-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 60948-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 60948-2019.png", "A 60948-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 60948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 60948-2019.docx", "A 60948-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 60948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 60948-2019.docx", "A 60948-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 60948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 60948-2019.docx", "A 60948-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 60948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 60948-2019.docx", "A 60948-2019")</f>
         <v/>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,27 +1699,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 36900-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 36900-2020.xlsx", "A 36900-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 36900-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 36900-2020.png", "A 36900-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 36900-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 36900-2020.docx", "A 36900-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 36900-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 36900-2020.docx", "A 36900-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 36900-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 36900-2020.docx", "A 36900-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 36900-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 36900-2020.docx", "A 36900-2020")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,27 +1785,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 55519-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 55519-2021.xlsx", "A 55519-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 55519-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 55519-2021.png", "A 55519-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 55519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 55519-2021.docx", "A 55519-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 55519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 55519-2021.docx", "A 55519-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 55519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 55519-2021.docx", "A 55519-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 55519-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 55519-2021.docx", "A 55519-2021")</f>
         <v/>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,27 +1870,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 17619-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 17619-2019.xlsx", "A 17619-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 17619-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 17619-2019.png", "A 17619-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 17619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 17619-2019.docx", "A 17619-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 17619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 17619-2019.docx", "A 17619-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 17619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 17619-2019.docx", "A 17619-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 17619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 17619-2019.docx", "A 17619-2019")</f>
         <v/>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1960,27 +1960,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 36549-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 36549-2021.xlsx", "A 36549-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 36549-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 36549-2021.png", "A 36549-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 36549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 36549-2021.docx", "A 36549-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 36549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 36549-2021.docx", "A 36549-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 36549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 36549-2021.docx", "A 36549-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 36549-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 36549-2021.docx", "A 36549-2021")</f>
         <v/>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,27 +2050,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 41718-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 41718-2021.xlsx", "A 41718-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 41718-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 41718-2021.png", "A 41718-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 41718-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 41718-2021.docx", "A 41718-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 41718-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 41718-2021.docx", "A 41718-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 41718-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 41718-2021.docx", "A 41718-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 41718-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 41718-2021.docx", "A 41718-2021")</f>
         <v/>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 50360-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 50360-2022.xlsx", "A 50360-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 50360-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 50360-2022.png", "A 50360-2022")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 50360-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 50360-2022.png", "A 50360-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 50360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 50360-2022.docx", "A 50360-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 50360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 50360-2022.docx", "A 50360-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 50360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 50360-2022.docx", "A 50360-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 50360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 50360-2022.docx", "A 50360-2022")</f>
         <v/>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,27 +2229,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 6977-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 6977-2023.xlsx", "A 6977-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 6977-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 6977-2023.png", "A 6977-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 6977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 6977-2023.docx", "A 6977-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 6977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 6977-2023.docx", "A 6977-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 6977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 6977-2023.docx", "A 6977-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 6977-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 6977-2023.docx", "A 6977-2023")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,31 +2314,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 8529-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 8529-2023.xlsx", "A 8529-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 8529-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 8529-2023.png", "A 8529-2023")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 8529-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 8529-2023.png", "A 8529-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 8529-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 8529-2023.docx", "A 8529-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 8529-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 8529-2023.docx", "A 8529-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 8529-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 8529-2023.docx", "A 8529-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 8529-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 8529-2023.docx", "A 8529-2023")</f>
         <v/>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,31 +2403,31 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11754-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11754-2023.xlsx", "A 11754-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11754-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11754-2023.png", "A 11754-2023")</f>
         <v/>
       </c>
       <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 11754-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 11754-2023.png", "A 11754-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11754-2023.docx", "A 11754-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11754-2023.docx", "A 11754-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11754-2023.docx", "A 11754-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11754-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11754-2023.docx", "A 11754-2023")</f>
         <v/>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,27 +2492,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 15432-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 15432-2023.xlsx", "A 15432-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 15432-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 15432-2023.png", "A 15432-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 15432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 15432-2023.docx", "A 15432-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 15432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 15432-2023.docx", "A 15432-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 15432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 15432-2023.docx", "A 15432-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 15432-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 15432-2023.docx", "A 15432-2023")</f>
         <v/>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2577,27 +2577,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 17899-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 17899-2023.xlsx", "A 17899-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 17899-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 17899-2023.png", "A 17899-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 17899-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 17899-2023.docx", "A 17899-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 17899-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 17899-2023.docx", "A 17899-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 17899-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 17899-2023.docx", "A 17899-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 17899-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 17899-2023.docx", "A 17899-2023")</f>
         <v/>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2662,27 +2662,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 21419-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 21419-2023.xlsx", "A 21419-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 21419-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 21419-2023.png", "A 21419-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 21419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 21419-2023.docx", "A 21419-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 21419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 21419-2023.docx", "A 21419-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 21419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 21419-2023.docx", "A 21419-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 21419-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 21419-2023.docx", "A 21419-2023")</f>
         <v/>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2747,27 +2747,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 26287-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 26287-2023.xlsx", "A 26287-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 26287-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 26287-2023.png", "A 26287-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 26287-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 26287-2023.docx", "A 26287-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 26287-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 26287-2023.docx", "A 26287-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 26287-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 26287-2023.docx", "A 26287-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 26287-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 26287-2023.docx", "A 26287-2023")</f>
         <v/>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13558,23 +13558,23 @@
       </c>
       <c r="R211" s="2" t="inlineStr"/>
       <c r="U211">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 22703-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/knärot/A 22703-2021.png", "A 22703-2021")</f>
         <v/>
       </c>
       <c r="V211">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 22703-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 22703-2021.docx", "A 22703-2021")</f>
         <v/>
       </c>
       <c r="W211">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 22703-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 22703-2021.docx", "A 22703-2021")</f>
         <v/>
       </c>
       <c r="X211">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 22703-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 22703-2021.docx", "A 22703-2021")</f>
         <v/>
       </c>
       <c r="Y211">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 22703-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 22703-2021.docx", "A 22703-2021")</f>
         <v/>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y504"/>
+  <dimension ref="A1:Y505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>44901</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7535,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7592,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7706,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8343,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9441,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9498,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9674,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9788,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9964,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10078,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10254,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10829,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12123,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12180,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12465,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13097,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13650,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15903,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17264,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18020,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18077,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18134,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18191,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18491,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23314,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23371,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23998,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25780,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25899,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26836,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26893,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26950,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27007,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27525,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27582,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27639,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28856,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28913,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29027,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29084,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29141,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29198,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29312,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29659,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29716,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29773,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29830,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30348,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
       </c>
       <c r="R503" s="2" t="inlineStr"/>
     </row>
-    <row r="504">
+    <row r="504" ht="15" customHeight="1">
       <c r="A504" t="inlineStr">
         <is>
           <t>A 40642-2023</t>
@@ -30467,7 +30467,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30513,6 +30513,68 @@
         <v>0</v>
       </c>
       <c r="R504" s="2" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>A 44712-2023</t>
+        </is>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C505" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G505" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0</v>
+      </c>
+      <c r="K505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N505" t="n">
+        <v>0</v>
+      </c>
+      <c r="O505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R505" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1002,59 +1002,149 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
+          <t>A 11067-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Reliktbock
+Rosenticka
+Ullticka
+Bollvitmossa
+Stuplav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11067-2023.xlsx", "A 11067-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11067-2023.png", "A 11067-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11067-2023.docx", "A 11067-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11067-2023.docx", "A 11067-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11067-2023.docx", "A 11067-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11067-2023.docx", "A 11067-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>A 59850-2022</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44901</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>1.7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett
 Violettgrå tagellav
@@ -1063,120 +1153,31 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 59850-2022.xlsx", "A 59850-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 59850-2022.png", "A 59850-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 59850-2022.docx", "A 59850-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 11067-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44992</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LEKSAND</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Reliktbock
-Rosenticka
-Ullticka
-Stuplav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/artfynd/A 11067-2023.xlsx", "A 11067-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/kartor/A 11067-2023.png", "A 11067-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomål/A 11067-2023.docx", "A 11067-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/klagomålsmail/A 11067-2023.docx", "A 11067-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsyn/A 11067-2023.docx", "A 11067-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LEKSAND/tillsynsmail/A 11067-2023.docx", "A 11067-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1187,7 +1188,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1280,7 +1281,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1377,7 +1378,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1465,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1557,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1642,7 +1643,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1733,7 +1734,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1820,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1904,7 +1905,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1994,7 +1995,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2084,7 +2085,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2178,7 +2179,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2263,7 +2264,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2352,7 +2353,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2442,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2527,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2611,7 +2612,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2696,7 +2697,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2781,7 +2782,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2839,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2896,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2953,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3010,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3067,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3124,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3181,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3242,7 +3243,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3299,7 +3300,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3356,7 +3357,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3413,7 +3414,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3470,7 +3471,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3527,7 +3528,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3589,7 +3590,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3651,7 +3652,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3708,7 +3709,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3765,7 +3766,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3822,7 +3823,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3884,7 +3885,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3946,7 +3947,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4003,7 +4004,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4060,7 +4061,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4117,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4179,7 +4180,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4241,7 +4242,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4298,7 +4299,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4355,7 +4356,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4412,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4469,7 +4470,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4526,7 +4527,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4583,7 +4584,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4645,7 +4646,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4702,7 +4703,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4759,7 +4760,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4816,7 +4817,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4873,7 +4874,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4930,7 +4931,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4987,7 +4988,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5044,7 +5045,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5101,7 +5102,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5158,7 +5159,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5215,7 +5216,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5272,7 +5273,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5329,7 +5330,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5386,7 +5387,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5443,7 +5444,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5500,7 +5501,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5557,7 +5558,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5614,7 +5615,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5676,7 +5677,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5733,7 +5734,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5790,7 +5791,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5852,7 +5853,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5909,7 +5910,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5966,7 +5967,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6023,7 +6024,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6080,7 +6081,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6137,7 +6138,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6194,7 +6195,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6251,7 +6252,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6308,7 +6309,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6365,7 +6366,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6422,7 +6423,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6479,7 +6480,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6536,7 +6537,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6593,7 +6594,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6650,7 +6651,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6707,7 +6708,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6764,7 +6765,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6821,7 +6822,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6878,7 +6879,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6935,7 +6936,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6992,7 +6993,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7049,7 +7050,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7111,7 +7112,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7168,7 +7169,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7230,7 +7231,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7292,7 +7293,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7354,7 +7355,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7416,7 +7417,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7478,7 +7479,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7535,7 +7536,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7592,7 +7593,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7649,7 +7650,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7706,7 +7707,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7763,7 +7764,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7820,7 +7821,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7877,7 +7878,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7939,7 +7940,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7996,7 +7997,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8053,7 +8054,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8110,7 +8111,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8167,7 +8168,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8224,7 +8225,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8281,7 +8282,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8343,7 +8344,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8405,7 +8406,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8462,7 +8463,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8524,7 +8525,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8581,7 +8582,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8638,7 +8639,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8695,7 +8696,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8752,7 +8753,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8809,7 +8810,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8866,7 +8867,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8923,7 +8924,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8980,7 +8981,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9037,7 +9038,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9094,7 +9095,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9152,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9208,7 +9209,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9265,7 +9266,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9322,7 +9323,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9384,7 +9385,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9441,7 +9442,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9498,7 +9499,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9560,7 +9561,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9617,7 +9618,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9674,7 +9675,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9731,7 +9732,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9788,7 +9789,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9845,7 +9846,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9902,7 +9903,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9964,7 +9965,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10021,7 +10022,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10078,7 +10079,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10140,7 +10141,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10197,7 +10198,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10254,7 +10255,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10311,7 +10312,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10368,7 +10369,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10425,7 +10426,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10482,7 +10483,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10539,7 +10540,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10596,7 +10597,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10658,7 +10659,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10715,7 +10716,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10772,7 +10773,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10829,7 +10830,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10886,7 +10887,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10948,7 +10949,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11005,7 +11006,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11062,7 +11063,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11124,7 +11125,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11186,7 +11187,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11243,7 +11244,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11305,7 +11306,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11367,7 +11368,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11424,7 +11425,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11481,7 +11482,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11538,7 +11539,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11595,7 +11596,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11652,7 +11653,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11709,7 +11710,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11772,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11829,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11885,7 +11886,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11947,7 +11948,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12010,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12067,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12123,7 +12124,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12180,7 +12181,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12237,7 +12238,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12294,7 +12295,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12351,7 +12352,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12408,7 +12409,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12465,7 +12466,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12528,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12585,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12641,7 +12642,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12698,7 +12699,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12755,7 +12756,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12812,7 +12813,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12869,7 +12870,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12926,7 +12927,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12983,7 +12984,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13040,7 +13041,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13097,7 +13098,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13160,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13221,7 +13222,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13279,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13336,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13393,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13450,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13507,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13588,7 +13589,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13650,7 +13651,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13712,7 +13713,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13769,7 +13770,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13831,7 +13832,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13893,7 +13894,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13950,7 +13951,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14007,7 +14008,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14064,7 +14065,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14121,7 +14122,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14178,7 +14179,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14240,7 +14241,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14302,7 +14303,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14359,7 +14360,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14416,7 +14417,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14473,7 +14474,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14530,7 +14531,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14587,7 +14588,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14644,7 +14645,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14701,7 +14702,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14758,7 +14759,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14815,7 +14816,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14872,7 +14873,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14929,7 +14930,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14986,7 +14987,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15043,7 +15044,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15100,7 +15101,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15157,7 +15158,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15214,7 +15215,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15271,7 +15272,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15328,7 +15329,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15385,7 +15386,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15442,7 +15443,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15499,7 +15500,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15556,7 +15557,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15613,7 +15614,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15670,7 +15671,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15727,7 +15728,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15789,7 +15790,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15846,7 +15847,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15903,7 +15904,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15960,7 +15961,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16017,7 +16018,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16074,7 +16075,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16131,7 +16132,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16193,7 +16194,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16255,7 +16256,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16312,7 +16313,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16369,7 +16370,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16426,7 +16427,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16488,7 +16489,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16550,7 +16551,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16607,7 +16608,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16664,7 +16665,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16721,7 +16722,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16783,7 +16784,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16845,7 +16846,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16907,7 +16908,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16969,7 +16970,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17031,7 +17032,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17088,7 +17089,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17145,7 +17146,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17202,7 +17203,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17264,7 +17265,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17326,7 +17327,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17383,7 +17384,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17440,7 +17441,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17497,7 +17498,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17554,7 +17555,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17616,7 +17617,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17673,7 +17674,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17735,7 +17736,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17792,7 +17793,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17849,7 +17850,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17906,7 +17907,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17963,7 +17964,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18020,7 +18021,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18077,7 +18078,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18134,7 +18135,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18191,7 +18192,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18248,7 +18249,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18305,7 +18306,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18367,7 +18368,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18429,7 +18430,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18491,7 +18492,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18554,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18611,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18673,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18734,7 +18735,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18791,7 +18792,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18848,7 +18849,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18905,7 +18906,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18962,7 +18963,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19019,7 +19020,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19076,7 +19077,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19133,7 +19134,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19190,7 +19191,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19247,7 +19248,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19304,7 +19305,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19361,7 +19362,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19423,7 +19424,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19480,7 +19481,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19537,7 +19538,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19599,7 +19600,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19661,7 +19662,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19723,7 +19724,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19780,7 +19781,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19837,7 +19838,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19894,7 +19895,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19951,7 +19952,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20008,7 +20009,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20065,7 +20066,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20122,7 +20123,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20179,7 +20180,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20236,7 +20237,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20293,7 +20294,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20350,7 +20351,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20407,7 +20408,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20464,7 +20465,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20521,7 +20522,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20578,7 +20579,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20635,7 +20636,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20692,7 +20693,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20749,7 +20750,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20806,7 +20807,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20863,7 +20864,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20920,7 +20921,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20977,7 +20978,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21034,7 +21035,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21091,7 +21092,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21148,7 +21149,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21205,7 +21206,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21262,7 +21263,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21319,7 +21320,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21376,7 +21377,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21433,7 +21434,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21490,7 +21491,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21547,7 +21548,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21604,7 +21605,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21661,7 +21662,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21718,7 +21719,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21775,7 +21776,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21832,7 +21833,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21889,7 +21890,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21946,7 +21947,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22003,7 +22004,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22060,7 +22061,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22117,7 +22118,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22174,7 +22175,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22231,7 +22232,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22288,7 +22289,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22345,7 +22346,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22402,7 +22403,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22460,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22517,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22574,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22631,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22688,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22745,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22802,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22859,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22916,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22973,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23030,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23087,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23144,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23201,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23257,7 +23258,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23314,7 +23315,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23371,7 +23372,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23428,7 +23429,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23485,7 +23486,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23542,7 +23543,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23599,7 +23600,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23656,7 +23657,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23713,7 +23714,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23770,7 +23771,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23827,7 +23828,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23884,7 +23885,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23941,7 +23942,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23998,7 +23999,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24055,7 +24056,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24112,7 +24113,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24169,7 +24170,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24226,7 +24227,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24283,7 +24284,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24340,7 +24341,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24397,7 +24398,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24459,7 +24460,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24516,7 +24517,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24573,7 +24574,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24630,7 +24631,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24687,7 +24688,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24744,7 +24745,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24801,7 +24802,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24858,7 +24859,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24915,7 +24916,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24972,7 +24973,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25029,7 +25030,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25086,7 +25087,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25143,7 +25144,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25200,7 +25201,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25257,7 +25258,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25314,7 +25315,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25371,7 +25372,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25428,7 +25429,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25485,7 +25486,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25547,7 +25548,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25609,7 +25610,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25666,7 +25667,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25723,7 +25724,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25780,7 +25781,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25842,7 +25843,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25899,7 +25900,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25961,7 +25962,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26023,7 +26024,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26085,7 +26086,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26142,7 +26143,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26199,7 +26200,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26256,7 +26257,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26313,7 +26314,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26370,7 +26371,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26427,7 +26428,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26484,7 +26485,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26541,7 +26542,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26598,7 +26599,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26655,7 +26656,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26717,7 +26718,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26779,7 +26780,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26836,7 +26837,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26893,7 +26894,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26950,7 +26951,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27007,7 +27008,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27064,7 +27065,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27126,7 +27127,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27183,7 +27184,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27240,7 +27241,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27297,7 +27298,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27354,7 +27355,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27411,7 +27412,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27468,7 +27469,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27525,7 +27526,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27582,7 +27583,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27639,7 +27640,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27696,7 +27697,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27758,7 +27759,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27815,7 +27816,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27872,7 +27873,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27929,7 +27930,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27991,7 +27992,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28048,7 +28049,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28105,7 +28106,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28162,7 +28163,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28219,7 +28220,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28276,7 +28277,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28333,7 +28334,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28395,7 +28396,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28452,7 +28453,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28514,7 +28515,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28571,7 +28572,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28628,7 +28629,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28685,7 +28686,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28742,7 +28743,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28799,7 +28800,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28856,7 +28857,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28913,7 +28914,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28970,7 +28971,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29027,7 +29028,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29084,7 +29085,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29141,7 +29142,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29198,7 +29199,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29255,7 +29256,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29312,7 +29313,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29369,7 +29370,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29426,7 +29427,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29483,7 +29484,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29540,7 +29541,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29602,7 +29603,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29659,7 +29660,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29716,7 +29717,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29773,7 +29774,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29830,7 +29831,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29887,7 +29888,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29944,7 +29945,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30001,7 +30002,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30058,7 +30059,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30115,7 +30116,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30172,7 +30173,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30229,7 +30230,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30286,7 +30287,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30348,7 +30349,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30410,7 +30411,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30467,7 +30468,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30524,7 +30525,7 @@
         <v>45190</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         <v>12.8</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
         <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -609,26 +609,32 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Rynkskinn
+Taggfingersvamp
+Barrviolspindling
 Garnlav
+Grantaggsvamp
+Gul taggsvamp
 Gultoppig fingersvamp
 Järpe
 Mindre hackspett
+Motaggsvamp
 Nordfladdermus
 Orange taggsvamp
 Rosenticka
 Rödvingetrast
+Skuggviol
 Spillkråka
 Stjärntagging
 Svartvit taggsvamp
@@ -652,6 +658,7 @@
 Vågbandad barkbock
 Ögonpyrola
 Större brunfladdermus
+Vattenfladdermus
 Åkergroda
 Vanlig groda
 Fläcknycklar
@@ -701,7 +708,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -805,7 +812,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -909,7 +916,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1016,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,7 +1106,7 @@
         <v>44901</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1188,7 +1195,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,7 +1288,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,7 +1385,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1465,7 +1472,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1564,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1650,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1734,7 +1741,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1827,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1905,7 +1912,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1995,7 +2002,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2092,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2179,7 +2186,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2264,7 +2271,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2353,7 +2360,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2442,7 +2449,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2527,7 +2534,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2619,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2697,7 +2704,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2782,7 +2789,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2846,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2896,7 +2903,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2953,7 +2960,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3010,7 +3017,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3067,7 +3074,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3124,7 +3131,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3181,7 +3188,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3243,7 +3250,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3300,7 +3307,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3357,7 +3364,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3414,7 +3421,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3471,7 +3478,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3528,7 +3535,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3590,7 +3597,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3652,7 +3659,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3709,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3766,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3823,7 +3830,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3885,7 +3892,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3947,7 +3954,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4004,7 +4011,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4061,7 +4068,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4118,7 +4125,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4180,7 +4187,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4242,7 +4249,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4299,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4356,7 +4363,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4413,7 +4420,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4470,7 +4477,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4527,7 +4534,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4584,7 +4591,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4646,7 +4653,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4703,7 +4710,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4760,7 +4767,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4817,7 +4824,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4874,7 +4881,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4931,7 +4938,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4988,7 +4995,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5045,7 +5052,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5102,7 +5109,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5159,7 +5166,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5216,7 +5223,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5273,7 +5280,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5330,7 +5337,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5387,7 +5394,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5444,7 +5451,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5501,7 +5508,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5558,7 +5565,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5615,7 +5622,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5677,7 +5684,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5734,7 +5741,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5791,7 +5798,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5853,7 +5860,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5910,7 +5917,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5967,7 +5974,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6024,7 +6031,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6081,7 +6088,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6138,7 +6145,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6195,7 +6202,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6252,7 +6259,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6309,7 +6316,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6366,7 +6373,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6423,7 +6430,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6480,7 +6487,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6537,7 +6544,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6594,7 +6601,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6651,7 +6658,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6708,7 +6715,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6765,7 +6772,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6822,7 +6829,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6879,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6936,7 +6943,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6993,7 +7000,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7050,7 +7057,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7112,7 +7119,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7169,7 +7176,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7231,7 +7238,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7293,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7355,7 +7362,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7417,7 +7424,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7479,7 +7486,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7536,7 +7543,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7593,7 +7600,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7650,7 +7657,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7707,7 +7714,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7764,7 +7771,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7821,7 +7828,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7878,7 +7885,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7940,7 +7947,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7997,7 +8004,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8054,7 +8061,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8111,7 +8118,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8168,7 +8175,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8225,7 +8232,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8282,7 +8289,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8344,7 +8351,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8406,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8463,7 +8470,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8525,7 +8532,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8582,7 +8589,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8639,7 +8646,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8696,7 +8703,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8753,7 +8760,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8810,7 +8817,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8867,7 +8874,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8924,7 +8931,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8981,7 +8988,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9038,7 +9045,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9095,7 +9102,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9152,7 +9159,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9209,7 +9216,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9266,7 +9273,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9323,7 +9330,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9385,7 +9392,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9442,7 +9449,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9499,7 +9506,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9561,7 +9568,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9618,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9675,7 +9682,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9732,7 +9739,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9789,7 +9796,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9846,7 +9853,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9903,7 +9910,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9965,7 +9972,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10022,7 +10029,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10079,7 +10086,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10141,7 +10148,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10198,7 +10205,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10255,7 +10262,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10312,7 +10319,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10369,7 +10376,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10426,7 +10433,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10483,7 +10490,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10540,7 +10547,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10597,7 +10604,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10659,7 +10666,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10716,7 +10723,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10773,7 +10780,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10830,7 +10837,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10887,7 +10894,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10949,7 +10956,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11006,7 +11013,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11063,7 +11070,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11125,7 +11132,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11187,7 +11194,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11244,7 +11251,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11306,7 +11313,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11368,7 +11375,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11425,7 +11432,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11482,7 +11489,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11539,7 +11546,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11596,7 +11603,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11653,7 +11660,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11710,7 +11717,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11772,7 +11779,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11829,7 +11836,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11886,7 +11893,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11948,7 +11955,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12010,7 +12017,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12067,7 +12074,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12124,7 +12131,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12181,7 +12188,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12238,7 +12245,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12295,7 +12302,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12352,7 +12359,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12409,7 +12416,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12466,7 +12473,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12528,7 +12535,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12585,7 +12592,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12642,7 +12649,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12699,7 +12706,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12756,7 +12763,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12813,7 +12820,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12870,7 +12877,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12927,7 +12934,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12984,7 +12991,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13041,7 +13048,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13098,7 +13105,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13160,7 +13167,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13222,7 +13229,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13279,7 +13286,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13336,7 +13343,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13393,7 +13400,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13450,7 +13457,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13507,7 +13514,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13589,7 +13596,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13651,7 +13658,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13713,7 +13720,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13770,7 +13777,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13832,7 +13839,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13894,7 +13901,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13951,7 +13958,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14008,7 +14015,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14065,7 +14072,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14122,7 +14129,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14179,7 +14186,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14241,7 +14248,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14303,7 +14310,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14360,7 +14367,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14417,7 +14424,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14474,7 +14481,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14531,7 +14538,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14588,7 +14595,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14645,7 +14652,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14702,7 +14709,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14759,7 +14766,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14816,7 +14823,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14873,7 +14880,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14930,7 +14937,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14987,7 +14994,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15044,7 +15051,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15101,7 +15108,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15158,7 +15165,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15215,7 +15222,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15272,7 +15279,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15329,7 +15336,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15386,7 +15393,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15443,7 +15450,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15500,7 +15507,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15557,7 +15564,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15614,7 +15621,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15671,7 +15678,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15728,7 +15735,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15790,7 +15797,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15847,7 +15854,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15904,7 +15911,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15961,7 +15968,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16018,7 +16025,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16075,7 +16082,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16132,7 +16139,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16194,7 +16201,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16256,7 +16263,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16313,7 +16320,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16370,7 +16377,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16427,7 +16434,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16489,7 +16496,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16551,7 +16558,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16608,7 +16615,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16665,7 +16672,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16722,7 +16729,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16784,7 +16791,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16846,7 +16853,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16908,7 +16915,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16970,7 +16977,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17032,7 +17039,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17089,7 +17096,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17146,7 +17153,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17203,7 +17210,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17265,7 +17272,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17327,7 +17334,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17384,7 +17391,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17441,7 +17448,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17498,7 +17505,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17555,7 +17562,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17617,7 +17624,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17674,7 +17681,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17736,7 +17743,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17793,7 +17800,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17850,7 +17857,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17907,7 +17914,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17964,7 +17971,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18021,7 +18028,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18078,7 +18085,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18135,7 +18142,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18192,7 +18199,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18249,7 +18256,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18306,7 +18313,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18368,7 +18375,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18430,7 +18437,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18492,7 +18499,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18554,7 +18561,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18611,7 +18618,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18673,7 +18680,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18735,7 +18742,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18792,7 +18799,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18849,7 +18856,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18906,7 +18913,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18963,7 +18970,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19020,7 +19027,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19077,7 +19084,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19134,7 +19141,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19191,7 +19198,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19248,7 +19255,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19305,7 +19312,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19362,7 +19369,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19424,7 +19431,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19481,7 +19488,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19538,7 +19545,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19600,7 +19607,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19662,7 +19669,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19724,7 +19731,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19781,7 +19788,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19838,7 +19845,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19895,7 +19902,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19952,7 +19959,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20009,7 +20016,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20066,7 +20073,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20123,7 +20130,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20180,7 +20187,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20237,7 +20244,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20294,7 +20301,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20351,7 +20358,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20408,7 +20415,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20465,7 +20472,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20522,7 +20529,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20579,7 +20586,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20636,7 +20643,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20693,7 +20700,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20750,7 +20757,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20807,7 +20814,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20864,7 +20871,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20921,7 +20928,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20978,7 +20985,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21035,7 +21042,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21092,7 +21099,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21149,7 +21156,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21206,7 +21213,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21263,7 +21270,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21320,7 +21327,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21377,7 +21384,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21434,7 +21441,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21491,7 +21498,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21548,7 +21555,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21605,7 +21612,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21662,7 +21669,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21719,7 +21726,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21776,7 +21783,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21833,7 +21840,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21890,7 +21897,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21947,7 +21954,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22004,7 +22011,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22061,7 +22068,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22118,7 +22125,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22182,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22239,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22296,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22346,7 +22353,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22403,7 +22410,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22460,7 +22467,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22517,7 +22524,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22574,7 +22581,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22631,7 +22638,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22688,7 +22695,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22745,7 +22752,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22802,7 +22809,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22859,7 +22866,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22916,7 +22923,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22973,7 +22980,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23030,7 +23037,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23087,7 +23094,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23144,7 +23151,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23201,7 +23208,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23258,7 +23265,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23315,7 +23322,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23372,7 +23379,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23429,7 +23436,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23486,7 +23493,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23543,7 +23550,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23600,7 +23607,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23657,7 +23664,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23714,7 +23721,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23771,7 +23778,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23828,7 +23835,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23885,7 +23892,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23942,7 +23949,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23999,7 +24006,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24056,7 +24063,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24113,7 +24120,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24170,7 +24177,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24227,7 +24234,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24284,7 +24291,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24341,7 +24348,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24398,7 +24405,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24460,7 +24467,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24517,7 +24524,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24574,7 +24581,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24631,7 +24638,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24688,7 +24695,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24745,7 +24752,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24802,7 +24809,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24859,7 +24866,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24916,7 +24923,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24973,7 +24980,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25030,7 +25037,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25087,7 +25094,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25144,7 +25151,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25201,7 +25208,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25258,7 +25265,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25315,7 +25322,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25372,7 +25379,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25429,7 +25436,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25486,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25548,7 +25555,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25610,7 +25617,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25667,7 +25674,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25724,7 +25731,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25781,7 +25788,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25843,7 +25850,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25900,7 +25907,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25962,7 +25969,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26024,7 +26031,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26086,7 +26093,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26143,7 +26150,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26200,7 +26207,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26257,7 +26264,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26314,7 +26321,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26371,7 +26378,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26428,7 +26435,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26485,7 +26492,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26542,7 +26549,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26599,7 +26606,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26656,7 +26663,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26718,7 +26725,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26780,7 +26787,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26837,7 +26844,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26894,7 +26901,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26951,7 +26958,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27008,7 +27015,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27065,7 +27072,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27127,7 +27134,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27184,7 +27191,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27241,7 +27248,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27298,7 +27305,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27355,7 +27362,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27412,7 +27419,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27469,7 +27476,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27526,7 +27533,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27583,7 +27590,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27640,7 +27647,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27697,7 +27704,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27759,7 +27766,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27816,7 +27823,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27873,7 +27880,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27930,7 +27937,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27992,7 +27999,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28049,7 +28056,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28106,7 +28113,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28163,7 +28170,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28220,7 +28227,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28277,7 +28284,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28334,7 +28341,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28396,7 +28403,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28453,7 +28460,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28515,7 +28522,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28572,7 +28579,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28629,7 +28636,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28686,7 +28693,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28743,7 +28750,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28800,7 +28807,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28857,7 +28864,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28914,7 +28921,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28971,7 +28978,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29028,7 +29035,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29085,7 +29092,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29142,7 +29149,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29199,7 +29206,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29256,7 +29263,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29313,7 +29320,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29370,7 +29377,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29427,7 +29434,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29484,7 +29491,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29541,7 +29548,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29603,7 +29610,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29660,7 +29667,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29717,7 +29724,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29774,7 +29781,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29831,7 +29838,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29888,7 +29895,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29945,7 +29952,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30002,7 +30009,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30059,7 +30066,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30116,7 +30123,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30173,7 +30180,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30230,7 +30237,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30287,7 +30294,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30349,7 +30356,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30411,7 +30418,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30468,7 +30475,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30525,7 +30532,7 @@
         <v>45190</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>44901</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4363,7 +4363,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5508,7 +5508,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13839,7 +13839,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16853,7 +16853,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17448,7 +17448,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18499,7 +18499,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18742,7 +18742,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19084,7 +19084,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19141,7 +19141,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19312,7 +19312,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19369,7 +19369,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19431,7 +19431,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19545,7 +19545,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19669,7 +19669,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19731,7 +19731,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19902,7 +19902,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19959,7 +19959,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20016,7 +20016,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20073,7 +20073,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20187,7 +20187,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20301,7 +20301,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20415,7 +20415,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20472,7 +20472,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21840,7 +21840,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22068,7 +22068,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22410,7 +22410,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22695,7 +22695,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22752,7 +22752,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22809,7 +22809,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22980,7 +22980,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23037,7 +23037,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23094,7 +23094,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23151,7 +23151,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23208,7 +23208,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23322,7 +23322,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23493,7 +23493,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23550,7 +23550,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23607,7 +23607,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23664,7 +23664,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23721,7 +23721,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23778,7 +23778,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24006,7 +24006,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24177,7 +24177,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24234,7 +24234,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24291,7 +24291,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24405,7 +24405,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24467,7 +24467,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24524,7 +24524,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24581,7 +24581,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24695,7 +24695,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25731,7 +25731,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26031,7 +26031,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26321,7 +26321,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26378,7 +26378,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26435,7 +26435,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26549,7 +26549,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26606,7 +26606,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26663,7 +26663,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26787,7 +26787,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26958,7 +26958,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27072,7 +27072,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27134,7 +27134,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27191,7 +27191,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27248,7 +27248,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27305,7 +27305,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27362,7 +27362,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27476,7 +27476,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27766,7 +27766,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27823,7 +27823,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27880,7 +27880,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27999,7 +27999,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28227,7 +28227,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28579,7 +28579,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28636,7 +28636,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28693,7 +28693,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28750,7 +28750,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28807,7 +28807,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28864,7 +28864,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28978,7 +28978,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29092,7 +29092,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29149,7 +29149,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29263,7 +29263,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29320,7 +29320,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29377,7 +29377,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29491,7 +29491,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29610,7 +29610,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29667,7 +29667,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29724,7 +29724,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29838,7 +29838,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29895,7 +29895,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29952,7 +29952,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30009,7 +30009,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30180,7 +30180,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30237,7 +30237,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30294,7 +30294,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30356,7 +30356,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30418,7 +30418,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30532,7 +30532,7 @@
         <v>45190</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y505"/>
+  <dimension ref="A1:Y507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -625,6 +625,7 @@
 Barrviolspindling
 Garnlav
 Grantaggsvamp
+Gränsticka
 Gul taggsvamp
 Gultoppig fingersvamp
 Järpe
@@ -708,7 +709,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -812,7 +813,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -916,7 +917,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,7 +1017,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1106,7 +1107,7 @@
         <v>44901</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1196,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1289,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1385,7 +1386,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1472,7 +1473,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1564,7 +1565,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1651,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1742,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1828,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1912,7 +1913,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2002,7 +2003,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2093,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2186,7 +2187,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2272,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2360,7 +2361,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2449,7 +2450,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2534,7 +2535,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2620,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2704,7 +2705,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2790,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2847,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2903,7 +2904,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2960,7 +2961,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3017,7 +3018,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3074,7 +3075,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3131,7 +3132,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3188,7 +3189,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3250,7 +3251,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3307,7 +3308,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3364,7 +3365,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3421,7 +3422,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3478,7 +3479,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3535,7 +3536,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3597,7 +3598,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3659,7 +3660,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3716,7 +3717,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3773,7 +3774,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3830,7 +3831,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3892,7 +3893,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3954,7 +3955,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4011,7 +4012,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4068,7 +4069,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4125,7 +4126,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4187,7 +4188,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4249,7 +4250,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4306,7 +4307,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4363,7 +4364,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4420,7 +4421,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4477,7 +4478,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4534,7 +4535,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4591,7 +4592,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4653,7 +4654,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4710,7 +4711,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4767,7 +4768,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4824,7 +4825,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4881,7 +4882,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4938,7 +4939,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4995,7 +4996,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5052,7 +5053,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5109,7 +5110,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5166,7 +5167,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5223,7 +5224,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5280,7 +5281,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5337,7 +5338,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5394,7 +5395,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5451,7 +5452,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5508,7 +5509,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5565,7 +5566,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5622,7 +5623,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5684,7 +5685,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5741,7 +5742,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5798,7 +5799,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5860,7 +5861,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5917,7 +5918,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5974,7 +5975,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6031,7 +6032,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6088,7 +6089,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6145,7 +6146,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6202,7 +6203,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6259,7 +6260,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6316,7 +6317,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6373,7 +6374,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6430,7 +6431,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6487,7 +6488,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6544,7 +6545,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6601,7 +6602,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6658,7 +6659,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6715,7 +6716,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6772,7 +6773,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6829,7 +6830,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6886,7 +6887,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6943,7 +6944,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7000,7 +7001,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7057,7 +7058,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7119,7 +7120,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7176,7 +7177,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7238,7 +7239,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7300,7 +7301,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7362,7 +7363,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7424,7 +7425,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7486,7 +7487,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7543,7 +7544,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7600,7 +7601,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7657,7 +7658,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7714,7 +7715,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7771,7 +7772,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7828,7 +7829,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7885,7 +7886,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7947,7 +7948,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8004,7 +8005,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8061,7 +8062,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8118,7 +8119,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8175,7 +8176,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8232,7 +8233,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8289,7 +8290,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8351,7 +8352,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8413,7 +8414,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8470,7 +8471,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8532,7 +8533,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8589,7 +8590,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8646,7 +8647,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8703,7 +8704,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8760,7 +8761,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8817,7 +8818,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8874,7 +8875,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8931,7 +8932,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8988,7 +8989,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9045,7 +9046,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9102,7 +9103,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9159,7 +9160,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9216,7 +9217,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9273,7 +9274,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9330,7 +9331,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9392,7 +9393,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9449,7 +9450,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9506,7 +9507,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9568,7 +9569,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9625,7 +9626,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9682,7 +9683,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9739,7 +9740,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9796,7 +9797,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9853,7 +9854,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9910,7 +9911,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9972,7 +9973,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10029,7 +10030,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10086,7 +10087,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10148,7 +10149,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10205,7 +10206,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10262,7 +10263,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10319,7 +10320,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10376,7 +10377,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10433,7 +10434,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10490,7 +10491,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10547,7 +10548,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10604,7 +10605,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10666,7 +10667,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10723,7 +10724,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10780,7 +10781,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10837,7 +10838,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10894,7 +10895,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10956,7 +10957,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11013,7 +11014,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11070,7 +11071,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11132,7 +11133,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11194,7 +11195,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11251,7 +11252,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11313,7 +11314,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11375,7 +11376,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11432,7 +11433,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11489,7 +11490,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11546,7 +11547,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11603,7 +11604,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11660,7 +11661,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11717,7 +11718,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11779,7 +11780,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11836,7 +11837,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11893,7 +11894,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11955,7 +11956,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12017,7 +12018,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12074,7 +12075,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12131,7 +12132,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12188,7 +12189,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12245,7 +12246,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12302,7 +12303,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12359,7 +12360,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12416,7 +12417,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12473,7 +12474,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12535,7 +12536,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12592,7 +12593,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12649,7 +12650,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12706,7 +12707,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12763,7 +12764,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12820,7 +12821,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12877,7 +12878,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12934,7 +12935,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12991,7 +12992,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13048,7 +13049,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13105,7 +13106,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13167,7 +13168,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13229,7 +13230,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13286,7 +13287,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13343,7 +13344,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13400,7 +13401,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13457,7 +13458,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13514,7 +13515,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13596,7 +13597,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13658,7 +13659,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13720,7 +13721,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13777,7 +13778,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13839,7 +13840,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13901,7 +13902,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13958,7 +13959,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14015,7 +14016,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14072,7 +14073,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14129,7 +14130,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14186,7 +14187,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14248,7 +14249,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14310,7 +14311,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14367,7 +14368,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14424,7 +14425,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14481,7 +14482,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14538,7 +14539,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14595,7 +14596,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14652,7 +14653,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14709,7 +14710,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14766,7 +14767,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14823,7 +14824,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14880,7 +14881,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14937,7 +14938,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14994,7 +14995,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15051,7 +15052,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15108,7 +15109,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15165,7 +15166,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15222,7 +15223,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15279,7 +15280,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15336,7 +15337,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15393,7 +15394,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15450,7 +15451,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15507,7 +15508,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15564,7 +15565,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15621,7 +15622,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15678,7 +15679,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15735,7 +15736,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15797,7 +15798,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15854,7 +15855,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15911,7 +15912,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15968,7 +15969,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16025,7 +16026,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16082,7 +16083,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16139,7 +16140,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16201,7 +16202,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16263,7 +16264,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16320,7 +16321,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16377,7 +16378,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16434,7 +16435,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16496,7 +16497,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16558,7 +16559,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16615,7 +16616,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16672,7 +16673,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16729,7 +16730,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16791,7 +16792,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16853,7 +16854,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16915,7 +16916,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16977,7 +16978,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17039,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17096,7 +17097,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17153,7 +17154,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17210,7 +17211,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17272,7 +17273,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17334,7 +17335,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17391,7 +17392,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17448,7 +17449,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17505,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17562,7 +17563,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17624,7 +17625,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17681,7 +17682,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17743,7 +17744,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17800,7 +17801,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17857,7 +17858,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17914,7 +17915,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17971,7 +17972,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18028,7 +18029,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18085,7 +18086,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18142,7 +18143,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18199,7 +18200,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18256,7 +18257,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18313,7 +18314,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18375,7 +18376,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18437,7 +18438,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18499,7 +18500,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18561,7 +18562,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18618,7 +18619,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18680,7 +18681,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18742,7 +18743,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18799,7 +18800,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18856,7 +18857,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18913,7 +18914,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18970,7 +18971,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19027,7 +19028,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19084,7 +19085,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19141,7 +19142,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19198,7 +19199,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19255,7 +19256,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19312,7 +19313,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19369,7 +19370,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19431,7 +19432,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19488,7 +19489,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19545,7 +19546,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19607,7 +19608,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19669,7 +19670,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19731,7 +19732,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19788,7 +19789,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19845,7 +19846,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19902,7 +19903,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19959,7 +19960,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20016,7 +20017,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20073,7 +20074,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20130,7 +20131,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20187,7 +20188,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20244,7 +20245,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20301,7 +20302,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20358,7 +20359,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20415,7 +20416,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20472,7 +20473,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20529,7 +20530,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20586,7 +20587,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20643,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20700,7 +20701,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20757,7 +20758,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20814,7 +20815,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20871,7 +20872,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20928,7 +20929,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20985,7 +20986,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21042,7 +21043,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21099,7 +21100,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21156,7 +21157,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21213,7 +21214,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21270,7 +21271,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21327,7 +21328,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21384,7 +21385,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21441,7 +21442,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21498,7 +21499,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21555,7 +21556,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21612,7 +21613,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21669,7 +21670,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21726,7 +21727,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21783,7 +21784,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21840,7 +21841,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21897,7 +21898,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21954,7 +21955,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22011,7 +22012,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22068,7 +22069,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22125,7 +22126,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22182,7 +22183,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22239,7 +22240,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22296,7 +22297,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22353,7 +22354,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22410,7 +22411,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22467,7 +22468,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22524,7 +22525,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22581,7 +22582,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22638,7 +22639,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22695,7 +22696,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22752,7 +22753,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22809,7 +22810,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22866,7 +22867,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22923,7 +22924,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22980,7 +22981,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23037,7 +23038,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23094,7 +23095,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23151,7 +23152,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23208,7 +23209,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23265,7 +23266,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23322,7 +23323,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23379,7 +23380,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23436,7 +23437,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23493,7 +23494,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23550,7 +23551,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23607,7 +23608,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23664,7 +23665,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23721,7 +23722,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23778,7 +23779,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23835,7 +23836,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23892,7 +23893,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23949,7 +23950,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24006,7 +24007,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24063,7 +24064,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24120,7 +24121,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24177,7 +24178,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24234,7 +24235,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24291,7 +24292,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24348,7 +24349,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24405,7 +24406,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24467,7 +24468,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24524,7 +24525,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24581,7 +24582,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24638,7 +24639,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24695,7 +24696,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24752,7 +24753,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24809,7 +24810,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24866,7 +24867,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24923,7 +24924,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24980,7 +24981,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25037,7 +25038,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25094,7 +25095,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25151,7 +25152,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25208,7 +25209,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25265,7 +25266,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25322,7 +25323,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25379,7 +25380,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25436,7 +25437,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25493,7 +25494,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25555,7 +25556,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25617,7 +25618,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25674,7 +25675,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25731,7 +25732,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25788,7 +25789,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25850,7 +25851,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25907,7 +25908,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25969,7 +25970,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26031,7 +26032,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26093,7 +26094,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26150,7 +26151,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26207,7 +26208,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26264,7 +26265,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26321,7 +26322,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26378,7 +26379,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26435,7 +26436,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26492,7 +26493,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26549,7 +26550,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26606,7 +26607,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26663,7 +26664,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26725,7 +26726,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26787,7 +26788,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26844,7 +26845,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26901,7 +26902,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26958,7 +26959,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27015,7 +27016,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27072,7 +27073,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27134,7 +27135,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27191,7 +27192,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27248,7 +27249,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27305,7 +27306,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27362,7 +27363,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27419,7 +27420,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27476,7 +27477,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27533,7 +27534,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27590,7 +27591,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27647,7 +27648,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27704,7 +27705,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27766,7 +27767,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27823,7 +27824,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27880,7 +27881,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27937,7 +27938,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27999,7 +28000,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28056,7 +28057,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28113,7 +28114,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28170,7 +28171,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28227,7 +28228,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28284,7 +28285,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28341,7 +28342,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28403,7 +28404,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28460,7 +28461,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28522,7 +28523,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28579,7 +28580,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28636,7 +28637,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28693,7 +28694,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28750,7 +28751,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28807,7 +28808,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28864,7 +28865,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28921,7 +28922,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28978,7 +28979,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29035,7 +29036,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29092,7 +29093,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29149,7 +29150,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29206,7 +29207,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29263,7 +29264,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29320,7 +29321,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29377,7 +29378,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29434,7 +29435,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29491,7 +29492,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29548,7 +29549,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29610,7 +29611,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29667,7 +29668,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29724,7 +29725,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29781,7 +29782,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29838,7 +29839,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29895,7 +29896,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29952,7 +29953,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30009,7 +30010,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30066,7 +30067,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30123,7 +30124,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30180,7 +30181,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30237,7 +30238,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30294,7 +30295,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30356,7 +30357,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30418,7 +30419,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30475,7 +30476,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30522,7 +30523,7 @@
       </c>
       <c r="R504" s="2" t="inlineStr"/>
     </row>
-    <row r="505">
+    <row r="505" ht="15" customHeight="1">
       <c r="A505" t="inlineStr">
         <is>
           <t>A 44712-2023</t>
@@ -30532,7 +30533,7 @@
         <v>45190</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30583,6 +30584,120 @@
         <v>0</v>
       </c>
       <c r="R505" s="2" t="inlineStr"/>
+    </row>
+    <row r="506" ht="15" customHeight="1">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>A 47673-2023</t>
+        </is>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C506" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>2</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N506" t="n">
+        <v>0</v>
+      </c>
+      <c r="O506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R506" s="2" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>A 47655-2023</t>
+        </is>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C507" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N507" t="n">
+        <v>0</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R507" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LEKSAND.xlsx
+++ b/Översikt LEKSAND.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y507"/>
+  <dimension ref="A1:Y508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44510</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>44876</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         <v>43783</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43783</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44992</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44901</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>44834</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44866</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>43405</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44869</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>43780</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44053</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>44475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>43555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>44391</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44425</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44866</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>44967</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>44977</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>44993</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>45020</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>45039</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45061</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>45091</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>43318</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>43318</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>43336</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>43350</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>43362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>43364</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43410</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43413</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43416</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43423</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>43423</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43425</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43426</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43431</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>43436</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>43439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>43441</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>43447</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>43448</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>43450</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>43452</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>43452</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>43454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>43461</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>43462</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43464</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43471</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43478</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>43486</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>43487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>43487</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>43490</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>43498</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>43502</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>43502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>43509</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>43511</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>43522</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>43523</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>43535</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>43553</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>43556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>43558</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43566</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>43566</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43598</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>43598</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>43600</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43654</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>43657</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>43657</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43669</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>43682</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43689</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>43698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>43707</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>43707</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43710</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         <v>43714</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43716</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43719</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43719</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43724</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43728</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43733</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43735</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43735</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43746</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43747</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43767</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43770</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43776</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43776</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>43780</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>43782</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43794</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43808</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43810</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>43811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>43815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         <v>43837</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>43844</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8989,7 +8989,7 @@
         <v>43849</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9103,7 +9103,7 @@
         <v>43856</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9217,7 +9217,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>43866</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>43873</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>43881</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>43892</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43902</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43902</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43902</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43912</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43917</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>43933</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>43938</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>43951</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43964</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43973</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43978</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43984</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43985</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43986</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43987</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43997</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>44002</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         <v>44002</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10781,7 +10781,7 @@
         <v>44005</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>44013</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44026</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44049</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         <v>44056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44071</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44071</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44073</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44078</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44085</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44088</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44088</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44090</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44091</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44153</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44154</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44159</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12018,7 +12018,7 @@
         <v>44161</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>44167</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44168</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44171</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44172</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12303,7 +12303,7 @@
         <v>44174</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12360,7 +12360,7 @@
         <v>44179</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>44181</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>44183</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44203</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44207</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44213</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44249</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44249</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44274</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44292</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44299</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44305</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44307</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44309</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44312</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44319</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13287,7 +13287,7 @@
         <v>44323</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44323</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44323</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44326</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13515,7 +13515,7 @@
         <v>44327</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>44327</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44328</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44335</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44336</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>44337</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44349</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>44350</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>44351</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>44374</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44375</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>44376</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14249,7 +14249,7 @@
         <v>44394</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14311,7 +14311,7 @@
         <v>44397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14368,7 +14368,7 @@
         <v>44399</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
         <v>44405</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14482,7 +14482,7 @@
         <v>44409</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14539,7 +14539,7 @@
         <v>44420</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         <v>44439</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44441</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>44446</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14767,7 +14767,7 @@
         <v>44453</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>44469</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>44477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14938,7 +14938,7 @@
         <v>44488</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         <v>44491</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15052,7 +15052,7 @@
         <v>44501</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15109,7 +15109,7 @@
         <v>44501</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44503</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44529</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>44529</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>44531</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>44533</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>44533</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>44533</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44536</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44539</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44543</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44544</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>44546</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>44553</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>44570</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>44574</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>44580</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>44588</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>44602</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>44630</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44643</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44651</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>44676</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44690</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>44693</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44693</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44711</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44711</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16854,7 +16854,7 @@
         <v>44711</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>44714</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44714</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>44719</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>44735</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>44740</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>44749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44750</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44784</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44792</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44797</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44797</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44802</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44811</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44812</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44812</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>44816</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>44818</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>44824</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>44824</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18029,7 +18029,7 @@
         <v>44829</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
         <v>44834</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>44834</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>44846</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>44851</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>44861</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>44861</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>44866</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>44866</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44869</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44869</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>44875</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44896</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44903</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44909</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>44909</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>44909</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>44911</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>44912</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19256,7 +19256,7 @@
         <v>44915</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>44917</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>44918</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44918</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44918</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44929</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>44929</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>44929</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44951</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44959</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44959</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44959</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44959</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44962</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44966</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44966</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44971</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44971</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44973</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44974</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44974</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44974</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44974</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44977</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44978</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44978</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>44978</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>44985</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         <v>44985</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>44986</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>44986</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
         <v>44987</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21271,7 +21271,7 @@
         <v>44987</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>44987</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>44988</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>44988</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>44988</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44990</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>44991</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44991</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44991</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44991</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21841,7 +21841,7 @@
         <v>44992</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>44992</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21955,7 +21955,7 @@
         <v>44992</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22069,7 +22069,7 @@
         <v>44992</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>44993</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>44993</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>44993</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22297,7 +22297,7 @@
         <v>44993</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44994</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         <v>44998</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         <v>44998</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44998</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44999</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>45001</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45001</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45001</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45001</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45005</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>45005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>45005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>45007</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>45012</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>45014</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45015</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>45015</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>45015</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>45019</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>45019</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>45020</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>45020</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>45022</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>45022</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45027</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45027</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45028</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45028</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>45030</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45033</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>45033</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45034</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45034</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45034</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45034</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45034</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45034</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45035</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45035</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45035</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45035</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45036</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45039</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24924,7 +24924,7 @@
         <v>45042</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24981,7 +24981,7 @@
         <v>45044</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25038,7 +25038,7 @@
         <v>45049</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         <v>45049</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25152,7 +25152,7 @@
         <v>45049</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45049</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>45050</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25323,7 +25323,7 @@
         <v>45050</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45051</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45054</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45055</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45055</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25675,7 +25675,7 @@
         <v>45061</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>45061</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25789,7 +25789,7 @@
         <v>45068</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>45068</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>45068</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45069</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>45069</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>45071</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45071</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45075</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>45076</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>45076</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>45076</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>45078</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>45084</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>45084</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45085</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45089</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26726,7 +26726,7 @@
         <v>45089</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26788,7 +26788,7 @@
         <v>45089</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26845,7 +26845,7 @@
         <v>45090</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26902,7 +26902,7 @@
         <v>45090</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26959,7 +26959,7 @@
         <v>45090</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45091</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27073,7 +27073,7 @@
         <v>45091</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45093</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45093</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45095</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45095</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45096</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45096</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         <v>45097</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27534,7 +27534,7 @@
         <v>45097</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27591,7 +27591,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45098</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27705,7 +27705,7 @@
         <v>45099</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>45103</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27824,7 +27824,7 @@
         <v>45103</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27881,7 +27881,7 @@
         <v>45104</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27938,7 +27938,7 @@
         <v>45104</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28000,7 +28000,7 @@
         <v>45104</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28057,7 +28057,7 @@
         <v>45104</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28114,7 +28114,7 @@
         <v>45104</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         <v>45104</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28228,7 +28228,7 @@
         <v>45105</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45105</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>45107</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>45108</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45110</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45110</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45112</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45112</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45112</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45113</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>45113</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29093,7 +29093,7 @@
         <v>45113</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>45114</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29207,7 +29207,7 @@
         <v>45114</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29264,7 +29264,7 @@
         <v>45120</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         <v>45120</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45121</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45121</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29492,7 +29492,7 @@
         <v>45121</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29549,7 +29549,7 @@
         <v>45125</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45127</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45127</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>45127</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45127</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>45127</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45131</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45131</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>45131</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45132</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>45145</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>45160</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         <v>45160</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         <v>45160</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>45167</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>45167</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>45169</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45190</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45203</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30642,7 +30642,7 @@
       </c>
       <c r="R506" s="2" t="inlineStr"/>
     </row>
-    <row r="507">
+    <row r="507" ht="15" customHeight="1">
       <c r="A507" t="inlineStr">
         <is>
           <t>A 47655-2023</t>
@@ -30652,7 +30652,7 @@
         <v>45203</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30698,6 +30698,63 @@
         <v>0</v>
       </c>
       <c r="R507" s="2" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>A 48029-2023</t>
+        </is>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C508" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>LEKSAND</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N508" t="n">
+        <v>0</v>
+      </c>
+      <c r="O508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R508" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
